--- a/Bez tytułu 1 — kopia.xlsx
+++ b/Bez tytułu 1 — kopia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NE_LOGORYT_PRO</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>https://masteredukacja.pl/logopedia-terapia-rozwoj/9208-logopedia-pro-logorytmika-32-5902539114737.html;https://swiatprogramow.pl/logorytmika-pro.html;https://www.3kropki.pl/p/edusensus-logopedia-pro-logorytmika.html</t>
+  </si>
+  <si>
+    <t>zab_bel_6850001</t>
+  </si>
+  <si>
+    <t>https://www.arante.pl/latajace-kolory.html</t>
+  </si>
+  <si>
+    <t>https://krainazabawy.pl/do-malowania/46267-beleduc-wirujace-kolory-kreatywny-zestaw-do-malowania-farbami-dla-dzieci-68500-4014888685002.html</t>
+  </si>
+  <si>
+    <t>ARK_CARR_KIT</t>
+  </si>
+  <si>
+    <t>https://www.arante.pl/carry-kit-wibrator-logopedyczny-z-vibe-3-koncowki-masujace.html</t>
+  </si>
+  <si>
+    <t>https://rerek.pl/carry-kit-wibrator-logopedyczny-z-vibe-3-koncowki-masujace.html;https://www.skleporto.com.pl/ark-carry-kit-z-vibe-wibrator-logopedyczny-3-koncowki-masujace-p-940.html;https://www.sklep-kajkosz.pl/pl/p/Carry-Kit-Wibrator-logopedyczny-Z-Vibe-3-Koncowki-Masujace/7452;https://www.empik.com/ark-carry-kit-wibrator-logopedyczny-z-vibe-3-koncowki-masujace-fuksja,p1410860134,agd-p;https://erli.pl/produkt/wibrator-logopedyczny-ark-carry-kit-z-vibe-3-koncowki-masujace-czerwony,93306937</t>
   </si>
 </sst>
 </file>
@@ -283,7 +301,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -332,12 +350,26 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>

--- a/Bez tytułu 1 — kopia.xlsx
+++ b/Bez tytułu 1 — kopia.xlsx
@@ -301,7 +301,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -360,7 +360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
